--- a/excel_files/case_outreach_info.xlsx
+++ b/excel_files/case_outreach_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,41 +415,41 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -457,133 +457,133 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -597,21 +597,21 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -634,119 +634,7 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2">
-        <v>45536</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2">
-        <v>45536</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2">
-        <v>45566</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2">
-        <v>45566</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2">
-        <v>45597</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2">
-        <v>45597</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2">
-        <v>45627</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2">
-        <v>45627</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
